--- a/xlsx/upcoming_studies.xlsx
+++ b/xlsx/upcoming_studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Workspace/catalogue-mental-health/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F3D49B-0DC3-EA46-80A0-2AE69C1B9DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821C39FA-9FAE-1349-BB8C-6B308D5B1604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" xr2:uid="{B91194F3-AD08-48D8-8BBE-7FFBED906206}"/>
+    <workbookView xWindow="31620" yWindow="-28300" windowWidth="25600" windowHeight="28300" xr2:uid="{B91194F3-AD08-48D8-8BBE-7FFBED906206}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Age at recruitment:</t>
   </si>
@@ -65,12 +65,30 @@
     <t>8-18 years</t>
   </si>
   <si>
+    <t>This study focuses on biological and social developments during adolescence. Recruitment will take place predominantly through schools, and follow the young people for 10 years. The study aims to understand health trajectories and outcomes for young people, with a focus on health equity.</t>
+  </si>
+  <si>
+    <t>Population study</t>
+  </si>
+  <si>
+    <t>https://www.ukri.org/what-we-do/our-main-funds-and-areas-of-support/browse-our-areas-of-investment-and-support/adolescent-health-study/</t>
+  </si>
+  <si>
     <t>C-GULL</t>
   </si>
   <si>
+    <t>Gestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The C-GULL study is a longitudinal birth cohort focussing on improving the health and wellbeing of children and their families within the Liverpool City Region, and similar regions within the UK. The study aims to collect data from 10,000 families to reduce health inequalities and improve health outcomes for children. </t>
+  </si>
+  <si>
     <t>Birth cohort</t>
   </si>
   <si>
+    <t>https://www.cgullstudy.com/</t>
+  </si>
+  <si>
     <t>N/A (funding received March 2023)</t>
   </si>
   <si>
@@ -83,128 +101,124 @@
     <t>Birth</t>
   </si>
   <si>
+    <t xml:space="preserve">The Children of the 2020s study is a five-wave longitudinal survey study of children from 9 months to five years. The data collected is inclusive of child development measures, environment and family contexts, health and mental health measures, as well as childcare and education provisions. </t>
+  </si>
+  <si>
     <t>Cohort study</t>
   </si>
   <si>
+    <t>https://cls.ucl.ac.uk/cls-studies/children-of-the-2020s-study/</t>
+  </si>
+  <si>
     <t>DfE</t>
   </si>
   <si>
     <t>Five to Twelve</t>
   </si>
   <si>
+    <t>Approximately 5 years old</t>
+  </si>
+  <si>
+    <t>Five to Twelve is a new cohort study exploring education and outcomes in children’s primary years. The study aims to understand how children’s school, home life and relationships shape their future education, development and outcomes.</t>
+  </si>
+  <si>
+    <t>https://fivetotwelve.org.uk/</t>
+  </si>
+  <si>
     <t>Currently recruiting participants</t>
   </si>
   <si>
+    <t>Approximately 12 years old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Growing up in the 2020s study will follow a nationally representative group of approximately 8,500 young people in England as they go through secondary school, and possibly beyond. </t>
+  </si>
+  <si>
+    <t>https://growingupinthe2020s.org.uk/</t>
+  </si>
+  <si>
+    <t>Autumn 2023</t>
+  </si>
+  <si>
+    <t>Varied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study is currently in the process of contacting the children and grandchildren of the 1930's Hertfordshire Birth Cohort. </t>
+  </si>
+  <si>
+    <t>https://generic.wordpress.soton.ac.uk/herts/participants-2/hertfordshire-3g/</t>
+  </si>
+  <si>
+    <t>Our Future Health</t>
+  </si>
+  <si>
+    <t>16+ years</t>
+  </si>
+  <si>
+    <t>Our Future Health aims to help people live healthier lives for longer through discovery and testing of effective approaches to prevention, earlier detection and treatment of diseases. Participants are asked to provide a small blood sample for genetic testing, and information about their health and lifestyles.</t>
+  </si>
+  <si>
+    <t>https://ourfuturehealth.org.uk/</t>
+  </si>
+  <si>
+    <t>UKRI</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>COT2020</t>
+  </si>
+  <si>
+    <t>5to12</t>
+  </si>
+  <si>
+    <t>GU2020</t>
+  </si>
+  <si>
+    <t>HCS3G</t>
+  </si>
+  <si>
+    <t>OFH</t>
+  </si>
+  <si>
+    <t>Adolescent Health Study (AHS)</t>
+  </si>
+  <si>
+    <t>Children growing up in Liverpool (C-GULL)</t>
+  </si>
+  <si>
     <t>Growing up in the 2020s</t>
   </si>
   <si>
-    <t>Varied</t>
-  </si>
-  <si>
-    <t>Our Future Health</t>
-  </si>
-  <si>
-    <t>UKRI</t>
-  </si>
-  <si>
-    <t>Code</t>
+    <t>Hertfordshire Cohort Study 3G (HCS3G)</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>COT2020</t>
-  </si>
-  <si>
-    <t>5to12</t>
-  </si>
-  <si>
-    <t>GU2020</t>
-  </si>
-  <si>
-    <t>HCS3G</t>
-  </si>
-  <si>
-    <t>OFH</t>
-  </si>
-  <si>
-    <t>Adolescent Health Study (AHS)</t>
-  </si>
-  <si>
-    <t>Children growing up in Liverpool (C-GULL)</t>
-  </si>
-  <si>
-    <t>Hertfordshire Cohort Study 3G (HCS3G)</t>
-  </si>
-  <si>
     <t>UKRI DBEIS</t>
   </si>
   <si>
-    <t>The Adolescent Health Study seeks to understand biological and social development during adolescence, with a focus on tracking outcomes such as health equity. The study aims to recruit 100,000 young people across the UK and follow them for 10 years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The C-GULL study aims to produce findings that could reduce health inequalities and improve health outcomes for children within the Liverpool City Region. The study will follow the lives of 10,000 first-born babies and their families, from early pregnancy through childhood and beyond. </t>
-  </si>
-  <si>
-    <t>The Children of the 2020s study aims to assess the effects of the family, early education and childcare on early educational outcomes. It aims to follow approximately 8,500 families in the context of a five-wave longitudinal survey study from nine months to five years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Five to Twelve aims to understand and improve how children’s school, home life and relationships shape their future education, development and outcomes. It is a national study that aims to follow around 8,200 children attending primary school in England in the 2020s through their primary years and beyond. </t>
-  </si>
-  <si>
-    <t>The Growing up in the 2020s study seeks to understand the experiences of young people in home and school environments and improve the development of schools and other services. The study aims to follow a nationally representative group of approximately 8,500 young people in England as they go through secondary school.</t>
-  </si>
-  <si>
-    <t>This study is currently in the process of contacting the children and grandchildren of the &lt;a href="https://www.cataloguementalhealth.ac.uk/?content=study&amp;studyid=HCS"&gt;1930s Hertfordshire Birth Cohort&lt;/a&gt;. The 1930s cohort is a group of 3,000 men and women who were born in Hertfordshire between 1931-39, recruited between 1998-2004 and followed since for their health and other life outcomes.</t>
-  </si>
-  <si>
-    <t>Our Future Health aims to help people live healthier lives for longer through discovery and testing of effective approaches to prevention, earlier detection and treatment of diseases. It aims to conduct research by following more than 1 million participants across the UK and collecting information about their health and lifestyles and biological samples for genetic testing.</t>
-  </si>
-  <si>
-    <t>Pregnancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approximately 5 years </t>
-  </si>
-  <si>
-    <t>Approximately 12 years</t>
-  </si>
-  <si>
-    <t>16 years +</t>
-  </si>
-  <si>
     <t>UKRI MRC</t>
-  </si>
-  <si>
-    <t>https://www.cgullstudy.com</t>
-  </si>
-  <si>
-    <t>https://www.ukri.org/what-we-do/our-main-funds-and-areas-of-support/browse-our-areas-of-investment-and-support/adolescent-health-study</t>
-  </si>
-  <si>
-    <t>https://www.cls.ucl.ac.uk/cls-studies/children-of-the-2020s-study</t>
-  </si>
-  <si>
-    <t>https://www.fivetotwelve.org.uk</t>
-  </si>
-  <si>
-    <t>https://www.growingupinthe2020s.org.uk</t>
-  </si>
-  <si>
-    <t>https://generic.wordpress.soton.ac.uk/herts/participants-2/hertfordshire-3g</t>
-  </si>
-  <si>
-    <t>https://www.ourfuturehealth.org.uk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,20 +241,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -257,9 +272,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -297,7 +312,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -403,7 +418,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -545,7 +560,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -557,7 +572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,7 +582,7 @@
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.1640625" style="1"/>
@@ -575,10 +590,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -589,7 +604,7 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -599,186 +614,186 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="1">
         <v>2024</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="1">
         <v>2021</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="176" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2023</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="208" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="192" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -787,14 +802,31 @@
       <sortCondition ref="B1:B5"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{F36E3A59-FBAB-419C-AD9F-01E3D37B2E4A}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{6B521E8B-EB9E-4953-B923-156AFB43A569}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{3889895E-B330-4898-A701-27BEA1558132}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{4D003D23-9CC0-4E9F-9948-A599B85586E1}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{6D39C3F7-D608-401F-918E-AC8EBF75153A}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{47F0F9D6-F29F-499E-9286-82F0BF217F9A}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{079BB7D1-6E06-44F1-854D-AFDB64ABB43F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55423843e2650ade946de227fdfd3c86">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b15cf6a4d7b0b7ca33e0fb73ec1791d3" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e687cc8bfaac909e05f4176cb548ff64">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a69ac97e46fed597af44404b7c53e36d" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
     <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
     <xsd:element name="properties">
@@ -816,6 +848,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -878,6 +911,11 @@
     <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1021,7 +1059,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
@@ -1039,17 +1077,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F370EB49-33EB-49FC-AF8C-0CDE30D67C47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA53F6A-9341-4D87-9165-5ECF242661D5}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91590313-6E5B-41CE-ADF0-A76EB32E3D9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1067,7 +1104,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F56740-8B66-448A-BDBA-0C9235BABD51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1076,12 +1113,4 @@
     <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F370EB49-33EB-49FC-AF8C-0CDE30D67C47}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/xlsx/upcoming_studies.xlsx
+++ b/xlsx/upcoming_studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Workspace/catalogue-mental-health/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821C39FA-9FAE-1349-BB8C-6B308D5B1604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60855145-BC5F-8947-8153-1EF44DE4E0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="-28300" windowWidth="25600" windowHeight="28300" xr2:uid="{B91194F3-AD08-48D8-8BBE-7FFBED906206}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19660" xr2:uid="{B91194F3-AD08-48D8-8BBE-7FFBED906206}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
   <si>
     <t>Age at recruitment:</t>
   </si>
@@ -62,22 +68,28 @@
     <t>AHS</t>
   </si>
   <si>
+    <t>Adolescent Health Study (AHS)</t>
+  </si>
+  <si>
     <t>8-18 years</t>
   </si>
   <si>
     <t>This study focuses on biological and social developments during adolescence. Recruitment will take place predominantly through schools, and follow the young people for 10 years. The study aims to understand health trajectories and outcomes for young people, with a focus on health equity.</t>
   </si>
   <si>
-    <t>Population study</t>
-  </si>
-  <si>
-    <t>https://www.ukri.org/what-we-do/our-main-funds-and-areas-of-support/browse-our-areas-of-investment-and-support/adolescent-health-study/</t>
+    <t>Cohort study</t>
+  </si>
+  <si>
+    <t>UKRI DBEIS</t>
   </si>
   <si>
     <t>C-GULL</t>
   </si>
   <si>
-    <t>Gestation</t>
+    <t>Children growing up in Liverpool (C-GULL)</t>
+  </si>
+  <si>
+    <t>Birth</t>
   </si>
   <si>
     <t xml:space="preserve">The C-GULL study is a longitudinal birth cohort focussing on improving the health and wellbeing of children and their families within the Liverpool City Region, and similar regions within the UK. The study aims to collect data from 10,000 families to reduce health inequalities and improve health outcomes for children. </t>
@@ -86,128 +98,122 @@
     <t>Birth cohort</t>
   </si>
   <si>
-    <t>https://www.cgullstudy.com/</t>
-  </si>
-  <si>
-    <t>N/A (funding received March 2023)</t>
+    <t>Currently recruiting participants</t>
   </si>
   <si>
     <t>Wellcome</t>
   </si>
   <si>
+    <t>COT2020</t>
+  </si>
+  <si>
     <t>Children of the 2020s</t>
   </si>
   <si>
-    <t>Birth</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Children of the 2020s study is a five-wave longitudinal survey study of children from 9 months to five years. The data collected is inclusive of child development measures, environment and family contexts, health and mental health measures, as well as childcare and education provisions. </t>
   </si>
   <si>
-    <t>Cohort study</t>
-  </si>
-  <si>
-    <t>https://cls.ucl.ac.uk/cls-studies/children-of-the-2020s-study/</t>
-  </si>
-  <si>
     <t>DfE</t>
   </si>
   <si>
+    <t>5to12</t>
+  </si>
+  <si>
     <t>Five to Twelve</t>
   </si>
   <si>
-    <t>Approximately 5 years old</t>
+    <t>5 years (approximately)</t>
   </si>
   <si>
     <t>Five to Twelve is a new cohort study exploring education and outcomes in children’s primary years. The study aims to understand how children’s school, home life and relationships shape their future education, development and outcomes.</t>
   </si>
   <si>
-    <t>https://fivetotwelve.org.uk/</t>
-  </si>
-  <si>
-    <t>Currently recruiting participants</t>
-  </si>
-  <si>
-    <t>Approximately 12 years old</t>
+    <t>GU2020</t>
+  </si>
+  <si>
+    <t>Growing up in the 2020s</t>
+  </si>
+  <si>
+    <t>12 years (approximately)</t>
   </si>
   <si>
     <t xml:space="preserve">The Growing up in the 2020s study will follow a nationally representative group of approximately 8,500 young people in England as they go through secondary school, and possibly beyond. </t>
   </si>
   <si>
-    <t>https://growingupinthe2020s.org.uk/</t>
-  </si>
-  <si>
-    <t>Autumn 2023</t>
+    <t>HCS3G</t>
+  </si>
+  <si>
+    <t>Hertfordshire 3G Intergenerational Study</t>
   </si>
   <si>
     <t>Varied</t>
   </si>
   <si>
-    <t xml:space="preserve">This study is currently in the process of contacting the children and grandchildren of the 1930's Hertfordshire Birth Cohort. </t>
-  </si>
-  <si>
-    <t>https://generic.wordpress.soton.ac.uk/herts/participants-2/hertfordshire-3g/</t>
+    <t xml:space="preserve">This study is currently in the process of contacting the children and grandchildren of the &lt;a href="https://www.cataloguementalhealth.ac.uk/?content=study&amp;studyid=HCS"&gt;1930's Hertfordshire Birth Cohort&lt;/a&gt;, to form an intergenerational study. </t>
+  </si>
+  <si>
+    <t>UKRI MRC</t>
+  </si>
+  <si>
+    <t>OFH</t>
   </si>
   <si>
     <t>Our Future Health</t>
   </si>
   <si>
-    <t>16+ years</t>
+    <t>16 years +</t>
   </si>
   <si>
     <t>Our Future Health aims to help people live healthier lives for longer through discovery and testing of effective approaches to prevention, earlier detection and treatment of diseases. Participants are asked to provide a small blood sample for genetic testing, and information about their health and lifestyles.</t>
   </si>
   <si>
-    <t>https://ourfuturehealth.org.uk/</t>
-  </si>
-  <si>
     <t>UKRI</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>COT2020</t>
-  </si>
-  <si>
-    <t>5to12</t>
-  </si>
-  <si>
-    <t>GU2020</t>
-  </si>
-  <si>
-    <t>HCS3G</t>
-  </si>
-  <si>
-    <t>OFH</t>
-  </si>
-  <si>
-    <t>Adolescent Health Study (AHS)</t>
-  </si>
-  <si>
-    <t>Children growing up in Liverpool (C-GULL)</t>
-  </si>
-  <si>
-    <t>Growing up in the 2020s</t>
-  </si>
-  <si>
-    <t>Hertfordshire Cohort Study 3G (HCS3G)</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>UKRI DBEIS</t>
-  </si>
-  <si>
-    <t>UKRI MRC</t>
+    <t>CoTEDS</t>
+  </si>
+  <si>
+    <t>The Children of TEDS Study (CoTEDS)</t>
+  </si>
+  <si>
+    <t>0-11 years +</t>
+  </si>
+  <si>
+    <t>CoTEDS is recruiting and aiming to follow the children of the &lt;a href="https://www.cataloguementalhealth.ac.uk/?content=study&amp;studyid=TEDS"&gt;Twins Early Development Study (TEDS)&lt;/a&gt; participants' offspring across development. This will make TEDS and CoTEDS intergenerational studies with data on both twin parents and their children from birth.</t>
+  </si>
+  <si>
+    <t>MRC</t>
+  </si>
+  <si>
+    <t>https://cgullstudy.com</t>
+  </si>
+  <si>
+    <t>https://ukri.org/what-we-do/our-main-funds-and-areas-of-support/browse-our-areas-of-investment-and-support/adolescent-health-study</t>
+  </si>
+  <si>
+    <t>https://cls.ucl.ac.uk/cls-studies/children-of-the-2020s-study</t>
+  </si>
+  <si>
+    <t>https://fivetotwelve.org.uk</t>
+  </si>
+  <si>
+    <t>https://growingupinthe2020s.org.uk</t>
+  </si>
+  <si>
+    <t>https://ourfuturehealth.org.uk</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/thg.2019.61</t>
+  </si>
+  <si>
+    <t>https://generic.wordpress.soton.ac.uk/herts/participants/hcs-igs/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +228,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,11 +257,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -568,232 +581,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B12321-84EA-4718-9FE2-081459E8FFDB}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="9" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G2" s="1">
         <v>2024</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="160" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
+      <c r="F4" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G4" s="1">
         <v>2021</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="192" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>40</v>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +846,13 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{F36E3A59-FBAB-419C-AD9F-01E3D37B2E4A}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{6B521E8B-EB9E-4953-B923-156AFB43A569}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{3889895E-B330-4898-A701-27BEA1558132}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{4D003D23-9CC0-4E9F-9948-A599B85586E1}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{6D39C3F7-D608-401F-918E-AC8EBF75153A}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{47F0F9D6-F29F-499E-9286-82F0BF217F9A}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{079BB7D1-6E06-44F1-854D-AFDB64ABB43F}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{28FAF8FD-E4FE-384D-9ED2-C6D8F73030A7}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{C739B60B-DA19-C14F-B966-9E4FB7BD9A9F}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{C526EBD1-DB13-5643-8744-53322E7C385B}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{31B4472E-9B76-DD44-B55D-E866C84335B4}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{FADF5D2D-61EC-AB45-81E8-7B9A919185A4}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{8D4B0675-E151-CD4A-88A7-40EE23BD4D9C}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{CAA27883-0366-374F-9A9A-A7BAD378C17A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -825,8 +868,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e687cc8bfaac909e05f4176cb548ff64">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a69ac97e46fed597af44404b7c53e36d" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068" xsi:nil="true"/>
+    <SharedWithUsers xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8046e14dd018cfae75cc81c7bd54fa81">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f5a7cddc10e2d49b30e68da3672472c" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
     <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
     <xsd:element name="properties">
@@ -1059,24 +1120,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068" xsi:nil="true"/>
-    <SharedWithUsers xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F370EB49-33EB-49FC-AF8C-0CDE30D67C47}">
   <ds:schemaRefs>
@@ -1086,7 +1129,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91590313-6E5B-41CE-ADF0-A76EB32E3D9B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F56740-8B66-448A-BDBA-0C9235BABD51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF0D806A-2515-4D02-BDC5-CA3CADE42187}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1102,15 +1156,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F56740-8B66-448A-BDBA-0C9235BABD51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
-    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>